--- a/results/I3_N5_M3_T30_C100_DepCentral_s3_mean_res.xlsx
+++ b/results/I3_N5_M3_T30_C100_DepCentral_s3_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>311.593194215716</v>
+        <v>376.8020010033806</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3370001316070557</v>
+        <v>0.5570001602172852</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34.49319421527048</v>
+        <v>32.80200100338062</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.943331445828009</v>
+        <v>4.889836398081228</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.943331445828009</v>
+        <v>4.889836398081228</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>277.1000000004455</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10">
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -893,7 +893,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>22.3572229423624</v>
       </c>
     </row>
     <row r="5">
@@ -917,7 +917,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>24.22809649842567</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -987,7 +987,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>7</v>
@@ -1054,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>64.38000000000648</v>
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -1065,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>88.01900000000751</v>
+        <v>113.2</v>
       </c>
     </row>
     <row r="5">
@@ -1076,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>115.2100000000283</v>
+        <v>121.2</v>
       </c>
     </row>
     <row r="6">
@@ -1087,7 +1087,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>73.97800000000643</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="7">
@@ -1098,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>112.5</v>
+        <v>62.4</v>
       </c>
     </row>
     <row r="8">
@@ -1109,7 +1109,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>88.01900000003481</v>
+        <v>121.2</v>
       </c>
     </row>
     <row r="9">
@@ -1120,7 +1120,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>112.5</v>
+        <v>113.2</v>
       </c>
     </row>
     <row r="10">
@@ -1131,7 +1131,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>115.2100000000446</v>
+        <v>71.59999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1178,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="3">
@@ -1189,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>12.5</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="4">
@@ -1200,7 +1200,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>15.21000000004455</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
